--- a/docs/ST1a/ST1a_16.08.2024_output.xlsx
+++ b/docs/ST1a/ST1a_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731656615.4386792</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731656617.5830069</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656615.4386792.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656617.5830069.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.54</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.54</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731656617.7366064</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731656618.246976</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656617.7366064.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656618.246976.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731656618.2629066</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731656619.2626646</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656618.2629066.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656619.2626646.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.52</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731656619.2776244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731656621.7410395</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656619.2776244.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656621.7410395.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.58</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.09</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.5099999999999909</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731656621.796504</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731656623.1353953</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656621.796504.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656623.1353953.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.03</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.94</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731656623.320433</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731656624.0754657</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656623.320433.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656624.0754657.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.93</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.86</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731656624.1797829</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731656625.3580184</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656624.1797829.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656625.3580184.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.88</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.79</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731656625.3729782</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731656626.9118955</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656625.3729782.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731656626.9118955.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.79</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.04</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731656631.588546</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731656633.381751</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656631.588546.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656633.381751.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.54</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.54</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731656633.5124013</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731656633.98015</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656633.5124013.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656633.98015.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>277.54</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.52</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731656633.9961083</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731656634.8647847</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656633.9961083.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656634.8647847.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.52</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.58</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731656634.879762</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731656636.77767</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656634.879762.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656636.77767.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.58</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.09</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5099999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731656636.8315248</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731656638.0582469</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656636.8315248.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656638.0582469.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.03</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>277.94</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731656638.2238033</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731656638.9109645</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656638.2238033.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656638.9109645.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>277.93</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>277.86</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731656639.003716</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731656640.0798457</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656639.003716.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656640.0798457.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>277.88</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.79</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731656640.0963798</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731656641.4876866</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656640.0963798.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656641.4876866.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.79</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>278.04</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731656646.7436879</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731656648.552442</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656646.7436879.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656648.552442.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>277.98</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>278.02</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.03999999999996362</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731656648.5683966</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731656649.3690183</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656648.5683966.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656649.3690183.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>278.02</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>278.13</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1100000000000136</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731656649.513477</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731656650.3181036</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656649.513477.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656650.3181036.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>278.03</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>278.03</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731656650.334034</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731656651.7190115</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656650.334034.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656651.7190115.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>278.03</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>278.41</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.3800000000000523</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731656651.7359538</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731656654.2749841</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656651.7359538.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656654.2749841.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>278.41</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>278.25</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.160000000000025</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731656656.3704405</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731656657.3170092</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656656.3704405.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SBER1731656657.3170092.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>278.09</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>278.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.03000000000002956</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731656662.2215452</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731656663.9356554</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656662.2215452.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656663.9356554.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.45</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>127.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731656666.44451</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731656666.888127</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656666.44451.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656666.888127.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.09</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>127.01</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731656668.4196448</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731656669.195023</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656668.4196448.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656669.195023.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>127.09</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>127.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731656669.7269444</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731656671.1730833</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656669.7269444.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656671.1730833.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.26</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>127.15</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731656671.2377396</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731656672.3590791</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656671.2377396.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731656672.3590791.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.17</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1943,95 +2121,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731656676.2746596</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731656676.2746596.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731656676.2746596.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.93</v>
       </c>
-      <c r="J30" t="n">
-        <v>127.93</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>127.95</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731656679.348248</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731656680.1889017</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656679.348248.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656680.1889017.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6319</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6325</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-6</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731656683.875393</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731656684.7482252</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656683.875393.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656684.7482252.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6307.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6308</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731656689.4074106</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731656690.2675202</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656689.4074106.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731656690.2675202.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6300.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6306</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-5.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2143,95 +2345,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731656693.4219084</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731656693.4219084.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731656693.4219084.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6320.5</v>
       </c>
-      <c r="J34" t="n">
-        <v>6320.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731656694.2110894</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731656695.3562899</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656694.2110894.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656695.3562899.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>494.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>494.75</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731656695.3722465</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731656696.762302</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656695.3722465.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656696.762302.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>494.75</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>495.15</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731656696.8556428</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731656697.4095397</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656696.8556428.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656697.4095397.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>494.95</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>494.95</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731656697.425464</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731656698.9813533</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656697.425464.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656698.9813533.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>494.95</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>493.7</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.25</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731656703.2316487</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731656705.2629228</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656703.2316487.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731656705.2629228.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>493.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>492.65</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-1.150000000000034</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2447,95 +2685,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731656709.9217687</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731656709.9217687.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731656709.9217687.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>493.65</v>
       </c>
-      <c r="J40" t="n">
-        <v>493.65</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>494.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731656710.8957412</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731656711.9791057</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656710.8957412.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656711.9791057.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>223.19</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>223.06</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731656718.1464767</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731656719.9766586</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656718.1464767.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656719.9766586.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>223.52</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>224</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731656719.9935858</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731656721.051797</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656719.9935858.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731656721.051797.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>224</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>223.78</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731656731.9783733</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731656732.7500672</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731656731.9783733.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731656732.7500672.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1020</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1019.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731656742.9865057</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731656743.6332939</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656742.9865057.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656743.6332939.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.118</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.113</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731656743.6492293</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731656744.9559853</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656743.6492293.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656744.9559853.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.113</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.14</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.02700000000000102</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731656745.0556364</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731656746.8735712</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656745.0556364.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656746.8735712.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.138</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.112</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.0259999999999998</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731656751.7617466</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731656752.5559685</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656751.7617466.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656752.5559685.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.113</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.082</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.03099999999999881</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731656754.1999397</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731656755.2754512</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656754.1999397.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656755.2754512.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.082</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.088</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.005999999999998451</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731656755.2914073</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731656757.189669</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656755.2914073.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731656757.189669.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>12.088</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>12.083</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3011,95 +3315,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731656758.206778</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731656758.206778.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731656758.206778.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.086</v>
       </c>
-      <c r="J51" t="n">
-        <v>12.086</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>12.098</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731656760.7123036</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731656761.7581766</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656760.7123036.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656761.7581766.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>125.06</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731656762.1165812</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731656762.6121123</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656762.1165812.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656762.6121123.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>125.02</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>125.06</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731656762.7911885</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731656763.6161528</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656762.7911885.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656763.6161528.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>125.08</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>124.98</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731656764.5259964</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731656765.730164</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656764.5259964.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656765.730164.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>125.02</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.28</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.7399999999999949</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731656766.3637683</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731656767.3966846</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656766.3637683.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656767.3966846.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>124.64</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>124.64</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731656767.9170916</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731656769.7162607</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656767.9170916.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656769.7162607.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>124.7</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.36</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3367,51 +3713,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731656770.7085445</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731656772.9986465</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656770.7085445.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656772.9986465.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>125.64</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3419,51 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731656773.3378966</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731656774.8041265</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656773.3378966.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731656774.8041265.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>125.66</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>126.38</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -3471,51 +3829,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731656776.3112617</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731656779.0188944</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656776.3112617.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656779.0188944.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>161.62</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>161.82</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731656781.4393153</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731656782.220232</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656781.4393153.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656782.220232.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>161.92</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>161.82</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731656785.1965392</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731656786.3480144</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656785.1965392.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656786.3480144.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>162.12</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>162.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731656786.3649445</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731656789.9186935</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656786.3649445.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656789.9186935.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>162.2</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>162.86</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.660000000000025</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731656789.9744415</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731656792.1191604</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656789.9744415.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731656792.1191604.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>162.78</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>162.98</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3731,51 +4119,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731656793.8383596</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731656794.7470367</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656793.8383596.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656794.7470367.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>49.7</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>49.695</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3783,51 +4177,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731656796.2959592</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731656797.4349658</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656796.2959592.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656797.4349658.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>49.715</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49.7</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3835,51 +4235,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731656800.8175015</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731656802.236228</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656800.8175015.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656802.236228.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.735</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.695</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731656802.789426</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731656804.6382575</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656802.789426.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731656804.6382575.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.68</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>49.665</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3939,95 +4351,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731656806.5727336</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731656806.5727336.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731656806.5727336.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.78</v>
       </c>
-      <c r="J69" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731656813.3712525</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731656814.1261997</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656813.3712525.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656814.1261997.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1377.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1376.6</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6000000000001364</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731656814.6592445</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731656815.720925</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656814.6592445.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656815.720925.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1376.2</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731656816.8863814</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731656817.8420982</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656816.8863814.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731656817.8420982.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1378.6</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1379</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4139,95 +4575,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731656822.060574</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731656822.060574.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731656822.060574.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1385.6</v>
       </c>
-      <c r="J73" t="n">
-        <v>1385.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1387.8</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731656831.0986474</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731656832.0289018</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731656831.0986474.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731656832.0289018.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>58.76</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>58.81</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4235,51 +4683,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731656836.978601</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731656839.201905</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731656836.978601.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731656839.201905.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>58.61</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>58.65</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4287,51 +4741,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731656844.8705268</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731656845.4393294</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656844.8705268.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656845.4393294.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>98.73999999999999</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731656847.8964171</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731656848.6487634</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656847.8964171.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656848.6487634.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>98.61</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>98.58</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731656852.9673605</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731656854.27829</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656852.9673605.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656854.27829.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>98.88</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731656855.4762313</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731656855.918491</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656855.4762313.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731656855.918491.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>99</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>99.22</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731656859.5983727</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731656860.3985252</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656859.5983727.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656860.3985252.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>54.48</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>54.46</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731656863.221197</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731656867.2562022</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656863.221197.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656867.2562022.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>54.52</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>54.36</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.1600000000000037</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4599,51 +5089,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731656867.2721326</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731656868.258701</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656867.2721326.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731656868.258701.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>54.36</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>54.34</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731656879.416835</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731656884.6972852</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731656879.416835.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731656884.6972852.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>152.7</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>152.46</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731656884.7144532</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731656885.5388951</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731656884.7144532.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731656885.5388951.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>152.46</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>153.1</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4755,95 +5263,107 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731656886.8997638</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731656886.8997638.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731656886.8997638.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.3041</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731656894.5344388</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731656895.213164</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656894.5344388.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656895.213164.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.754</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>19.746</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.008000000000002672</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4851,51 +5371,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731656896.6543286</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731656897.549451</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656896.6543286.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656897.549451.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.771</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.778</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.006999999999997897</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4903,51 +5429,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731656901.9095209</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731656902.9425197</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656901.9095209.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656902.9425197.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.764</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.803</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.03900000000000148</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4955,51 +5487,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731656902.999761</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731656903.7223442</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656902.999761.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656903.7223442.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.799</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.784</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5007,51 +5545,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731656905.4966238</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731656906.3217466</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656905.4966238.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731656906.3217466.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.853</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>19.928</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.07499999999999929</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5059,95 +5603,107 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731656907.470872</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731656907.470872.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731656907.470872.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>19.949</v>
       </c>
-      <c r="J91" t="n">
-        <v>19.949</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.02099999999999724</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731656911.3325062</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731656912.2849307</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656911.3325062.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656912.2849307.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>676.55</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>676.35</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -5155,51 +5711,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731656914.1216674</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731656917.2684073</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656914.1216674.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656917.2684073.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>676</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>675.6</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5207,51 +5769,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731656917.6221077</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731656918.7779105</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656917.6221077.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656918.7779105.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>675.75</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>676.05</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5259,51 +5827,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731656920.3130805</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731656922.6342585</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656920.3130805.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731656922.6342585.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>674.7</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>675</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5311,95 +5885,107 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731656922.7255094</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731656922.7255094.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731656922.7255094.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>674.95</v>
       </c>
-      <c r="J96" t="n">
-        <v>674.95</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>674.9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.05000000000006821</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731656926.958671</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731656929.428913</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656926.958671.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656929.428913.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>149.28</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>148.9</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -5407,51 +5993,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731656934.4466226</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731656937.0604396</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656934.4466226.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656937.0604396.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>148.42</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>148.31</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.1099999999999852</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5459,51 +6051,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731656938.9567385</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731656939.716751</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656938.9567385.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731656939.716751.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>149.02</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>148.97</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5631,19 +6229,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03800000000000026</v>
+        <v>-0.0259999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005428571428571465</v>
+        <v>-0.003714285714285686</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6">
@@ -5653,19 +6251,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1440000000000019</v>
+        <v>0.1649999999999991</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02400000000000032</v>
+        <v>0.02749999999999986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.74</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -5675,16 +6273,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1199999999999903</v>
+        <v>0.1399999999999864</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01999999999999839</v>
+        <v>0.02333333333333106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
@@ -5697,19 +6295,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4499999999999886</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07499999999999811</v>
+        <v>-0.2166666666666686</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08999999999999997</v>
+        <v>-0.26</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -5719,19 +6317,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03499999999999659</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006999999999999318</v>
+        <v>-0.00799999999999983</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.07999999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -5741,16 +6339,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5499999999998408</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1199999999999818</v>
+        <v>0.1099999999999682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
@@ -5785,19 +6383,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1999999999998181</v>
+        <v>2.000000000000227</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04999999999995453</v>
+        <v>0.5000000000000568</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02</v>
+        <v>0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -5807,19 +6405,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12</v>
+        <v>-17.5</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-3</v>
+        <v>-4.375</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.19</v>
+        <v>-0.28</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5983,19 +6581,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="22">
